--- a/MLearn/bayes_test_decode.xlsx
+++ b/MLearn/bayes_test_decode.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
